--- a/data/pca/factorExposure/factorExposure_2017-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01729294671868565</v>
+        <v>0.009890158104345256</v>
       </c>
       <c r="C2">
-        <v>-0.01620977824630307</v>
+        <v>-0.04086414078540271</v>
       </c>
       <c r="D2">
-        <v>-0.03178436325104721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02959662592113863</v>
+      </c>
+      <c r="E2">
+        <v>-0.03831564453037334</v>
+      </c>
+      <c r="F2">
+        <v>0.004442437033733954</v>
+      </c>
+      <c r="G2">
+        <v>-0.104388119360989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02273353246847378</v>
+        <v>0.04142154764918124</v>
       </c>
       <c r="C3">
-        <v>0.007933389328395206</v>
+        <v>-0.1016176941631561</v>
       </c>
       <c r="D3">
-        <v>-0.09713385269779158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01764996750485031</v>
+      </c>
+      <c r="E3">
+        <v>-0.1012401571263431</v>
+      </c>
+      <c r="F3">
+        <v>0.0009049230962038034</v>
+      </c>
+      <c r="G3">
+        <v>-0.1633408333544027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02643527345574636</v>
+        <v>0.05615142749040239</v>
       </c>
       <c r="C4">
-        <v>-0.005872927222784517</v>
+        <v>-0.06898648065950055</v>
       </c>
       <c r="D4">
-        <v>-0.08337134936781028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02454665780822335</v>
+      </c>
+      <c r="E4">
+        <v>-0.03221278942156386</v>
+      </c>
+      <c r="F4">
+        <v>0.009497363996149331</v>
+      </c>
+      <c r="G4">
+        <v>-0.09891555366435156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01394509195192177</v>
+        <v>0.03658341970612732</v>
       </c>
       <c r="C6">
-        <v>-0.007699818787750331</v>
+        <v>-0.0505819951265899</v>
       </c>
       <c r="D6">
-        <v>-0.07412033328678724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01711531633298916</v>
+      </c>
+      <c r="E6">
+        <v>-0.03797935092761117</v>
+      </c>
+      <c r="F6">
+        <v>0.005717294448395266</v>
+      </c>
+      <c r="G6">
+        <v>-0.0861637500241767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005885666677022697</v>
+        <v>0.02083663948396613</v>
       </c>
       <c r="C7">
-        <v>-0.01017919063887089</v>
+        <v>-0.03949955992056558</v>
       </c>
       <c r="D7">
-        <v>-0.03654807099594565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0140009647036088</v>
+      </c>
+      <c r="E7">
+        <v>-0.007312118466625065</v>
+      </c>
+      <c r="F7">
+        <v>-0.005144488945120223</v>
+      </c>
+      <c r="G7">
+        <v>-0.1221224232055164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00107199619253288</v>
+        <v>0.002861507764931005</v>
       </c>
       <c r="C8">
-        <v>-0.002085486601416683</v>
+        <v>-0.02446465694494962</v>
       </c>
       <c r="D8">
-        <v>0.004202937702935572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003795464834281666</v>
+      </c>
+      <c r="E8">
+        <v>-0.02979841628035473</v>
+      </c>
+      <c r="F8">
+        <v>0.003929568102815458</v>
+      </c>
+      <c r="G8">
+        <v>-0.06935541722094053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01519139269855776</v>
+        <v>0.03436696389580599</v>
       </c>
       <c r="C9">
-        <v>-0.005228480479624007</v>
+        <v>-0.05063055568043245</v>
       </c>
       <c r="D9">
-        <v>-0.05874194526667324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01638481712771573</v>
+      </c>
+      <c r="E9">
+        <v>-0.02212078680970862</v>
+      </c>
+      <c r="F9">
+        <v>0.005975605105137464</v>
+      </c>
+      <c r="G9">
+        <v>-0.09945741763053574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1249303214604872</v>
+        <v>0.09917542306032992</v>
       </c>
       <c r="C10">
-        <v>0.1270755876996429</v>
+        <v>0.1838102802830056</v>
       </c>
       <c r="D10">
-        <v>0.1070045863370256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01568062163201904</v>
+      </c>
+      <c r="E10">
+        <v>-0.02021855080163882</v>
+      </c>
+      <c r="F10">
+        <v>-0.02245781126847499</v>
+      </c>
+      <c r="G10">
+        <v>-0.05618670443670552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001428623107801976</v>
+        <v>0.03436586021865015</v>
       </c>
       <c r="C11">
-        <v>-2.269015159598418e-05</v>
+        <v>-0.05315277528266244</v>
       </c>
       <c r="D11">
-        <v>-0.05249690848068226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002519328508191063</v>
+      </c>
+      <c r="E11">
+        <v>-0.01802557114544834</v>
+      </c>
+      <c r="F11">
+        <v>0.01962572430788382</v>
+      </c>
+      <c r="G11">
+        <v>-0.09122832462793215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005080589625157811</v>
+        <v>0.03604203150191153</v>
       </c>
       <c r="C12">
-        <v>-0.003130122927392912</v>
+        <v>-0.0477769151234179</v>
       </c>
       <c r="D12">
-        <v>-0.0457308581331181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00660316039216213</v>
+      </c>
+      <c r="E12">
+        <v>-0.009783967265554659</v>
+      </c>
+      <c r="F12">
+        <v>0.0008059060707429821</v>
+      </c>
+      <c r="G12">
+        <v>-0.08320491495959345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02016841194359407</v>
+        <v>0.01531438913604251</v>
       </c>
       <c r="C13">
-        <v>-0.01005551355579254</v>
+        <v>-0.04192303259765191</v>
       </c>
       <c r="D13">
-        <v>-0.034004302928843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02657616672657135</v>
+      </c>
+      <c r="E13">
+        <v>-0.03833597860765383</v>
+      </c>
+      <c r="F13">
+        <v>0.003738976877228034</v>
+      </c>
+      <c r="G13">
+        <v>-0.140537985466589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0048738773081963</v>
+        <v>0.008149286685669129</v>
       </c>
       <c r="C14">
-        <v>-0.004936898907065662</v>
+        <v>-0.02827259983561443</v>
       </c>
       <c r="D14">
-        <v>-0.01866981317378783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01018298593074784</v>
+      </c>
+      <c r="E14">
+        <v>-0.008102104696640315</v>
+      </c>
+      <c r="F14">
+        <v>-0.008340963983970235</v>
+      </c>
+      <c r="G14">
+        <v>-0.1062902773349796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.004560279039888569</v>
+        <v>0.03291172680854371</v>
       </c>
       <c r="C16">
-        <v>0.003297942080973946</v>
+        <v>-0.04609028942422551</v>
       </c>
       <c r="D16">
-        <v>-0.04064064704152005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002020220411413852</v>
+      </c>
+      <c r="E16">
+        <v>-0.01588619509998316</v>
+      </c>
+      <c r="F16">
+        <v>0.001111445821014697</v>
+      </c>
+      <c r="G16">
+        <v>-0.09315664307542403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.012619599025467</v>
+        <v>0.02311923327910769</v>
       </c>
       <c r="C19">
-        <v>-0.005885361340939575</v>
+        <v>-0.05147364887507654</v>
       </c>
       <c r="D19">
-        <v>-0.03802810509289527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01923389061758028</v>
+      </c>
+      <c r="E19">
+        <v>-0.08082665274819852</v>
+      </c>
+      <c r="F19">
+        <v>0.01809793263448766</v>
+      </c>
+      <c r="G19">
+        <v>-0.139009221953618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006273695090867079</v>
+        <v>0.01521821874324334</v>
       </c>
       <c r="C20">
-        <v>-0.008624249821575294</v>
+        <v>-0.04197455423050038</v>
       </c>
       <c r="D20">
-        <v>-0.03343726806631986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01429562311164552</v>
+      </c>
+      <c r="E20">
+        <v>-0.03893459919543583</v>
+      </c>
+      <c r="F20">
+        <v>-0.01329719248372955</v>
+      </c>
+      <c r="G20">
+        <v>-0.1108055015584346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0146192315880058</v>
+        <v>0.01229329139827615</v>
       </c>
       <c r="C21">
-        <v>-0.003875568397919958</v>
+        <v>-0.03816990428082805</v>
       </c>
       <c r="D21">
-        <v>-0.0197878952050962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01922316583850815</v>
+      </c>
+      <c r="E21">
+        <v>-0.0509444129123188</v>
+      </c>
+      <c r="F21">
+        <v>-0.001935946104390774</v>
+      </c>
+      <c r="G21">
+        <v>-0.1383321120640248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001450220411268988</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002549597957345673</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0006346276077618451</v>
+      </c>
+      <c r="E22">
+        <v>-0.004382435770117919</v>
+      </c>
+      <c r="F22">
+        <v>0.001782192684102016</v>
+      </c>
+      <c r="G22">
+        <v>-0.005942534389389636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001455766393298836</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002666554228180908</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0006334649613724148</v>
+      </c>
+      <c r="E23">
+        <v>-0.004369552391417185</v>
+      </c>
+      <c r="F23">
+        <v>0.001788449424349731</v>
+      </c>
+      <c r="G23">
+        <v>-0.005835228561387208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0003042318979314969</v>
+        <v>0.02816059536727323</v>
       </c>
       <c r="C24">
-        <v>-0.00713503645470509</v>
+        <v>-0.05074527187579492</v>
       </c>
       <c r="D24">
-        <v>-0.04560801867443982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007352693337376925</v>
+      </c>
+      <c r="E24">
+        <v>-0.0129028330590063</v>
+      </c>
+      <c r="F24">
+        <v>0.01137000050310995</v>
+      </c>
+      <c r="G24">
+        <v>-0.09169183762502732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01666906110626215</v>
+        <v>0.0422085419015693</v>
       </c>
       <c r="C25">
-        <v>0.001213930587470884</v>
+        <v>-0.05782579093855399</v>
       </c>
       <c r="D25">
-        <v>-0.05792136501565639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01136420896772889</v>
+      </c>
+      <c r="E25">
+        <v>-0.00520996717249665</v>
+      </c>
+      <c r="F25">
+        <v>0.004567898410292376</v>
+      </c>
+      <c r="G25">
+        <v>-0.1000210406192825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01701736435378618</v>
+        <v>0.0139116714340894</v>
       </c>
       <c r="C26">
-        <v>-0.01410671926367313</v>
+        <v>-0.01285117814100891</v>
       </c>
       <c r="D26">
-        <v>-0.0008643827691888041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02421776874517914</v>
+      </c>
+      <c r="E26">
+        <v>-0.00891490804865887</v>
+      </c>
+      <c r="F26">
+        <v>-0.008147305158846983</v>
+      </c>
+      <c r="G26">
+        <v>-0.0824315424125799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1740029734928913</v>
+        <v>0.1260411522753717</v>
       </c>
       <c r="C28">
-        <v>0.1567004873589782</v>
+        <v>0.240893304667281</v>
       </c>
       <c r="D28">
-        <v>0.1391040766152478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006668673184637828</v>
+      </c>
+      <c r="E28">
+        <v>-0.009375430057993456</v>
+      </c>
+      <c r="F28">
+        <v>-0.01552150477191602</v>
+      </c>
+      <c r="G28">
+        <v>-0.04954568029752193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01048810137388979</v>
+        <v>0.008793992059676499</v>
       </c>
       <c r="C29">
-        <v>0.0008590544943766938</v>
+        <v>-0.02259046848297493</v>
       </c>
       <c r="D29">
-        <v>-0.01789656252733231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009290346972536615</v>
+      </c>
+      <c r="E29">
+        <v>-0.005399536948003036</v>
+      </c>
+      <c r="F29">
+        <v>-0.01499697709477658</v>
+      </c>
+      <c r="G29">
+        <v>-0.0972917339622222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01386738880873325</v>
+        <v>0.04136761954184665</v>
       </c>
       <c r="C30">
-        <v>-0.02044542708629201</v>
+        <v>-0.06904314035987481</v>
       </c>
       <c r="D30">
-        <v>-0.0971453094826583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02897975692168706</v>
+      </c>
+      <c r="E30">
+        <v>-0.06081987378933947</v>
+      </c>
+      <c r="F30">
+        <v>0.04309681709202383</v>
+      </c>
+      <c r="G30">
+        <v>-0.1343141275940086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02369914369282357</v>
+        <v>0.05297348065882723</v>
       </c>
       <c r="C31">
-        <v>0.01581903552262811</v>
+        <v>-0.03810570256520388</v>
       </c>
       <c r="D31">
-        <v>-0.02843466294461186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003825268278592489</v>
+      </c>
+      <c r="E31">
+        <v>-0.0001582623036253645</v>
+      </c>
+      <c r="F31">
+        <v>-0.04080483412114974</v>
+      </c>
+      <c r="G31">
+        <v>-0.09844710209172122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>5.522466877845939e-05</v>
+        <v>0.002685883096374711</v>
       </c>
       <c r="C32">
-        <v>0.01149149116012697</v>
+        <v>-0.02315792340182141</v>
       </c>
       <c r="D32">
-        <v>0.002485442954655068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002961055491756691</v>
+      </c>
+      <c r="E32">
+        <v>-0.03452550244203514</v>
+      </c>
+      <c r="F32">
+        <v>0.04204184056705298</v>
+      </c>
+      <c r="G32">
+        <v>-0.08807926605228728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009787262022886576</v>
+        <v>0.02843709042596268</v>
       </c>
       <c r="C33">
-        <v>-0.0062067389806712</v>
+        <v>-0.05064496522494442</v>
       </c>
       <c r="D33">
-        <v>-0.04062441931026074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01570547364430019</v>
+      </c>
+      <c r="E33">
+        <v>-0.04365475506192528</v>
+      </c>
+      <c r="F33">
+        <v>0.01441682088519059</v>
+      </c>
+      <c r="G33">
+        <v>-0.1618677376600908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.006415605398752863</v>
+        <v>0.03975454982216815</v>
       </c>
       <c r="C34">
-        <v>0.0137654216290613</v>
+        <v>-0.05919581929737922</v>
       </c>
       <c r="D34">
-        <v>-0.05512078830885385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004432053762457025</v>
+      </c>
+      <c r="E34">
+        <v>-0.008154851863710781</v>
+      </c>
+      <c r="F34">
+        <v>0.020390914307097</v>
+      </c>
+      <c r="G34">
+        <v>-0.09533755177000883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0164068134716085</v>
+        <v>0.01633458324922548</v>
       </c>
       <c r="C36">
-        <v>0.001135631498799071</v>
+        <v>-0.009657694635806902</v>
       </c>
       <c r="D36">
-        <v>-0.004791168598478403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01255269779324292</v>
+      </c>
+      <c r="E36">
+        <v>-0.008757190461875576</v>
+      </c>
+      <c r="F36">
+        <v>-0.008288297833001411</v>
+      </c>
+      <c r="G36">
+        <v>-0.09180553313895247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01205590054722521</v>
+        <v>0.03120308702578616</v>
       </c>
       <c r="C38">
-        <v>0.02160271449312441</v>
+        <v>-0.03042107038088232</v>
       </c>
       <c r="D38">
-        <v>-0.03697038143451693</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00739786362598839</v>
+      </c>
+      <c r="E38">
+        <v>-0.007629443828296461</v>
+      </c>
+      <c r="F38">
+        <v>-0.01885269107417377</v>
+      </c>
+      <c r="G38">
+        <v>-0.08646078089576491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.008038633033616826</v>
+        <v>0.03641118457331125</v>
       </c>
       <c r="C39">
-        <v>-0.02014647145294358</v>
+        <v>-0.07988077129481694</v>
       </c>
       <c r="D39">
-        <v>-0.09859438591444271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0118439618067251</v>
+      </c>
+      <c r="E39">
+        <v>-0.02968517979633439</v>
+      </c>
+      <c r="F39">
+        <v>0.02216022670620338</v>
+      </c>
+      <c r="G39">
+        <v>-0.09109283044430661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01519858867200453</v>
+        <v>0.01321191299900743</v>
       </c>
       <c r="C40">
-        <v>3.164513392626647e-05</v>
+        <v>-0.03909875102460385</v>
       </c>
       <c r="D40">
-        <v>-0.03005898634551301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01479168555764158</v>
+      </c>
+      <c r="E40">
+        <v>-0.03225078378350923</v>
+      </c>
+      <c r="F40">
+        <v>-0.007868922387472227</v>
+      </c>
+      <c r="G40">
+        <v>-0.1241858880688871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01552126731346502</v>
+        <v>0.02054908814952169</v>
       </c>
       <c r="C41">
-        <v>0.01058515196556689</v>
+        <v>-0.00267291742960239</v>
       </c>
       <c r="D41">
-        <v>0.009934898881869192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004500750244919563</v>
+      </c>
+      <c r="E41">
+        <v>-0.008129379524979934</v>
+      </c>
+      <c r="F41">
+        <v>-0.01576922400209177</v>
+      </c>
+      <c r="G41">
+        <v>-0.08577592597757619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.05431799999472374</v>
+        <v>0.009451708998766687</v>
       </c>
       <c r="C42">
-        <v>-0.07706644978512017</v>
+        <v>-0.0328776315937736</v>
       </c>
       <c r="D42">
-        <v>-0.1382999237363302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08902884796942941</v>
+      </c>
+      <c r="E42">
+        <v>-0.01908305241248788</v>
+      </c>
+      <c r="F42">
+        <v>-0.04387805911027569</v>
+      </c>
+      <c r="G42">
+        <v>0.0229576738753526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01584614586950745</v>
+        <v>0.0351798534222619</v>
       </c>
       <c r="C43">
-        <v>0.009809794446434403</v>
+        <v>-0.01845930824620835</v>
       </c>
       <c r="D43">
-        <v>0.01173849766261152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005893726194363872</v>
+      </c>
+      <c r="E43">
+        <v>-0.02071595330203964</v>
+      </c>
+      <c r="F43">
+        <v>-0.008048074050247093</v>
+      </c>
+      <c r="G43">
+        <v>-0.1190849109443765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001023324341503993</v>
+        <v>0.01331759306133946</v>
       </c>
       <c r="C44">
-        <v>-0.002921199399014361</v>
+        <v>-0.05972928661928065</v>
       </c>
       <c r="D44">
-        <v>-0.04981415882438375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007068353667757342</v>
+      </c>
+      <c r="E44">
+        <v>-0.02615962272243422</v>
+      </c>
+      <c r="F44">
+        <v>-0.004843490116654987</v>
+      </c>
+      <c r="G44">
+        <v>-0.1105521902289115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009769045580825923</v>
+        <v>0.008349685960290487</v>
       </c>
       <c r="C46">
-        <v>-0.003808644483853554</v>
+        <v>-0.01414179494325254</v>
       </c>
       <c r="D46">
-        <v>0.005325404999769757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01260364689709715</v>
+      </c>
+      <c r="E46">
+        <v>-0.001898754792220218</v>
+      </c>
+      <c r="F46">
+        <v>-0.01563685919148505</v>
+      </c>
+      <c r="G46">
+        <v>-0.1065926190075802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02105227249710816</v>
+        <v>0.07758686931012056</v>
       </c>
       <c r="C47">
-        <v>0.02213432199373323</v>
+        <v>-0.06895754118699517</v>
       </c>
       <c r="D47">
-        <v>-0.07236901799050116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004803719663149184</v>
+      </c>
+      <c r="E47">
+        <v>0.005186443589753661</v>
+      </c>
+      <c r="F47">
+        <v>-0.05375040318747917</v>
+      </c>
+      <c r="G47">
+        <v>-0.08453951628963263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009085669898804284</v>
+        <v>0.01879603494977041</v>
       </c>
       <c r="C48">
-        <v>0.007221450225121735</v>
+        <v>-0.01317742461198065</v>
       </c>
       <c r="D48">
-        <v>-0.01494221304050098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002291093714809261</v>
+      </c>
+      <c r="E48">
+        <v>-0.005547702715830729</v>
+      </c>
+      <c r="F48">
+        <v>-0.02002827048236759</v>
+      </c>
+      <c r="G48">
+        <v>-0.09675590449484217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03026131076735535</v>
+        <v>0.07548096905476413</v>
       </c>
       <c r="C50">
-        <v>0.02871981817227967</v>
+        <v>-0.07183761293254237</v>
       </c>
       <c r="D50">
-        <v>-0.06793197355224774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002252544808986328</v>
+      </c>
+      <c r="E50">
+        <v>0.002841120168327192</v>
+      </c>
+      <c r="F50">
+        <v>-0.05616739829806176</v>
+      </c>
+      <c r="G50">
+        <v>-0.09234096953155253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006474454629817702</v>
+        <v>0.01421775322154866</v>
       </c>
       <c r="C51">
-        <v>-0.001819167309737151</v>
+        <v>-0.03655377849111891</v>
       </c>
       <c r="D51">
-        <v>-0.01767049645859016</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01068289707276732</v>
+      </c>
+      <c r="E51">
+        <v>-0.02691936975392754</v>
+      </c>
+      <c r="F51">
+        <v>0.02316422037124335</v>
+      </c>
+      <c r="G51">
+        <v>-0.1235931841535783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03512186368286527</v>
+        <v>0.08159815710252771</v>
       </c>
       <c r="C53">
-        <v>0.03288069085552045</v>
+        <v>-0.0853450397448224</v>
       </c>
       <c r="D53">
-        <v>-0.1275357257624115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003477788731729468</v>
+      </c>
+      <c r="E53">
+        <v>0.02409506504521634</v>
+      </c>
+      <c r="F53">
+        <v>-0.06556223052554516</v>
+      </c>
+      <c r="G53">
+        <v>-0.09181499261812574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01427957674718626</v>
+        <v>0.03155623470853118</v>
       </c>
       <c r="C54">
-        <v>0.01787215244813576</v>
+        <v>-0.01913260646554814</v>
       </c>
       <c r="D54">
-        <v>0.004468638894103534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001252735705111205</v>
+      </c>
+      <c r="E54">
+        <v>-0.01830310301635907</v>
+      </c>
+      <c r="F54">
+        <v>-0.006301567952365882</v>
+      </c>
+      <c r="G54">
+        <v>-0.1070968590783317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0197878508725263</v>
+        <v>0.07180968500461714</v>
       </c>
       <c r="C55">
-        <v>0.01953661036993674</v>
+        <v>-0.06809680487098489</v>
       </c>
       <c r="D55">
-        <v>-0.09818260251530421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005078911251441501</v>
+      </c>
+      <c r="E55">
+        <v>0.02303365685886554</v>
+      </c>
+      <c r="F55">
+        <v>-0.06452799513094673</v>
+      </c>
+      <c r="G55">
+        <v>-0.06931713640724572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.03866918951531709</v>
+        <v>0.135781135003855</v>
       </c>
       <c r="C56">
-        <v>0.04119554971519494</v>
+        <v>-0.1079553335172064</v>
       </c>
       <c r="D56">
-        <v>-0.1559546018887423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0124486763801069</v>
+      </c>
+      <c r="E56">
+        <v>0.03251099380788307</v>
+      </c>
+      <c r="F56">
+        <v>-0.08259625143193236</v>
+      </c>
+      <c r="G56">
+        <v>-0.04191136492192081</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0214145331874492</v>
+        <v>0.005705435100481797</v>
       </c>
       <c r="C57">
-        <v>-0.01064248731398804</v>
+        <v>-0.006440526849477876</v>
       </c>
       <c r="D57">
-        <v>-0.03013197405404413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02285346025518602</v>
+      </c>
+      <c r="E57">
+        <v>-0.02517189907738635</v>
+      </c>
+      <c r="F57">
+        <v>0.00853042650429715</v>
+      </c>
+      <c r="G57">
+        <v>-0.024016918999566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02215043997934224</v>
+        <v>0.05315751690494567</v>
       </c>
       <c r="C58">
-        <v>0.01804923445662436</v>
+        <v>-0.0427969894111002</v>
       </c>
       <c r="D58">
-        <v>-0.1197964662336051</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01978619843752368</v>
+      </c>
+      <c r="E58">
+        <v>-0.9139240209697441</v>
+      </c>
+      <c r="F58">
+        <v>-0.2631459036148932</v>
+      </c>
+      <c r="G58">
+        <v>0.2324718254269156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1939438359531766</v>
+        <v>0.1602682235937971</v>
       </c>
       <c r="C59">
-        <v>0.181382868653113</v>
+        <v>0.2053525400488106</v>
       </c>
       <c r="D59">
-        <v>0.1160737935812329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01172983104908416</v>
+      </c>
+      <c r="E59">
+        <v>-0.01785795099401958</v>
+      </c>
+      <c r="F59">
+        <v>-0.003027365159655278</v>
+      </c>
+      <c r="G59">
+        <v>-0.04164517333256353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1673985759740224</v>
+        <v>0.2889051683940903</v>
       </c>
       <c r="C60">
-        <v>0.130514403942874</v>
+        <v>-0.1093863667756658</v>
       </c>
       <c r="D60">
-        <v>-0.1427557922907615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01173509935715727</v>
+      </c>
+      <c r="E60">
+        <v>0.003330522064064363</v>
+      </c>
+      <c r="F60">
+        <v>0.3400668302299735</v>
+      </c>
+      <c r="G60">
+        <v>0.1605042337673634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002570829452345772</v>
+        <v>0.03893757350852015</v>
       </c>
       <c r="C61">
-        <v>-0.002231152389005865</v>
+        <v>-0.06562167672967219</v>
       </c>
       <c r="D61">
-        <v>-0.07273252659579507</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005551836247672338</v>
+      </c>
+      <c r="E61">
+        <v>-0.02383967525045782</v>
+      </c>
+      <c r="F61">
+        <v>0.01306466230679697</v>
+      </c>
+      <c r="G61">
+        <v>-0.09634667998573401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007313822712497595</v>
+        <v>0.01604185677918139</v>
       </c>
       <c r="C63">
-        <v>-0.003177206800632002</v>
+        <v>-0.03056398989354026</v>
       </c>
       <c r="D63">
-        <v>-0.0251003344988744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008431032916412213</v>
+      </c>
+      <c r="E63">
+        <v>-0.003541498280338293</v>
+      </c>
+      <c r="F63">
+        <v>-0.01811756308357686</v>
+      </c>
+      <c r="G63">
+        <v>-0.09192533903186989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02633102999931953</v>
+        <v>0.04915800695438471</v>
       </c>
       <c r="C64">
-        <v>0.01722215283027818</v>
+        <v>-0.04759020004008713</v>
       </c>
       <c r="D64">
-        <v>-0.05957901204197173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006560261993050413</v>
+      </c>
+      <c r="E64">
+        <v>-0.00884349563180337</v>
+      </c>
+      <c r="F64">
+        <v>0.008386968227554579</v>
+      </c>
+      <c r="G64">
+        <v>-0.102720582333994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03097563059390731</v>
+        <v>0.07544758795815767</v>
       </c>
       <c r="C65">
-        <v>0.00489272769047763</v>
+        <v>-0.05791719655561969</v>
       </c>
       <c r="D65">
-        <v>-0.1125339397422833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01665438050706287</v>
+      </c>
+      <c r="E65">
+        <v>-0.03936824772761921</v>
+      </c>
+      <c r="F65">
+        <v>0.02726514422043475</v>
+      </c>
+      <c r="G65">
+        <v>-0.04367912356962212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005473766617282619</v>
+        <v>0.05097135400752072</v>
       </c>
       <c r="C66">
-        <v>-0.01738535989989006</v>
+        <v>-0.1067676469665503</v>
       </c>
       <c r="D66">
-        <v>-0.1359862781635828</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01174352079541462</v>
+      </c>
+      <c r="E66">
+        <v>-0.04092064182283175</v>
+      </c>
+      <c r="F66">
+        <v>0.03338447080102488</v>
+      </c>
+      <c r="G66">
+        <v>-0.1046598304476293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03033528553576076</v>
+        <v>0.05394205928994085</v>
       </c>
       <c r="C67">
-        <v>0.03408435282459018</v>
+        <v>-0.03387811199111614</v>
       </c>
       <c r="D67">
-        <v>-0.05622215999016973</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005885679374265138</v>
+      </c>
+      <c r="E67">
+        <v>0.001397724313461874</v>
+      </c>
+      <c r="F67">
+        <v>-0.01797937475063907</v>
+      </c>
+      <c r="G67">
+        <v>-0.07467329868374802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1984298589228257</v>
+        <v>0.1556556000957473</v>
       </c>
       <c r="C68">
-        <v>0.1598950238423565</v>
+        <v>0.2693077443380826</v>
       </c>
       <c r="D68">
-        <v>0.1712256641785954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005384481566220776</v>
+      </c>
+      <c r="E68">
+        <v>-0.01140027334702335</v>
+      </c>
+      <c r="F68">
+        <v>-0.03730604571585772</v>
+      </c>
+      <c r="G68">
+        <v>-0.03032268146749095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02662180889675732</v>
+        <v>0.08278672140682011</v>
       </c>
       <c r="C69">
-        <v>0.0326231136819305</v>
+        <v>-0.07027487606939015</v>
       </c>
       <c r="D69">
-        <v>-0.07630465789621065</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008882234922022792</v>
+      </c>
+      <c r="E69">
+        <v>0.02029611361426847</v>
+      </c>
+      <c r="F69">
+        <v>-0.03892429557019739</v>
+      </c>
+      <c r="G69">
+        <v>-0.101482074689644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.161825860118574</v>
+        <v>0.1414079076050801</v>
       </c>
       <c r="C71">
-        <v>0.1393799707372638</v>
+        <v>0.2304046909060249</v>
       </c>
       <c r="D71">
-        <v>0.123336831274222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003211782781112998</v>
+      </c>
+      <c r="E71">
+        <v>-0.03171200252172916</v>
+      </c>
+      <c r="F71">
+        <v>-0.02552190831674347</v>
+      </c>
+      <c r="G71">
+        <v>-0.0717328847664373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.012228255536254</v>
+        <v>0.08450832628378194</v>
       </c>
       <c r="C72">
-        <v>0.01903981114351282</v>
+        <v>-0.06882779942434604</v>
       </c>
       <c r="D72">
-        <v>-0.1037997031376585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008176413470873247</v>
+      </c>
+      <c r="E72">
+        <v>0.009138810976410786</v>
+      </c>
+      <c r="F72">
+        <v>0.03624544715143699</v>
+      </c>
+      <c r="G72">
+        <v>-0.08723300359659869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.205805165772443</v>
+        <v>0.3775240500973779</v>
       </c>
       <c r="C73">
-        <v>0.1531888083181114</v>
+        <v>-0.1183074689972794</v>
       </c>
       <c r="D73">
-        <v>-0.2705272056935011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02091033081886172</v>
+      </c>
+      <c r="E73">
+        <v>-0.0746616492187672</v>
+      </c>
+      <c r="F73">
+        <v>0.5833845883941682</v>
+      </c>
+      <c r="G73">
+        <v>0.2884375494401182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.03864384113185153</v>
+        <v>0.1045525870836393</v>
       </c>
       <c r="C74">
-        <v>0.04326376022968875</v>
+        <v>-0.1097236830280146</v>
       </c>
       <c r="D74">
-        <v>-0.1698188200120686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009450994192848455</v>
+      </c>
+      <c r="E74">
+        <v>0.007480033897611448</v>
+      </c>
+      <c r="F74">
+        <v>-0.07026313566564747</v>
+      </c>
+      <c r="G74">
+        <v>-0.08161574038153299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0973081667932798</v>
+        <v>0.2467873948428183</v>
       </c>
       <c r="C75">
-        <v>0.1033322089136775</v>
+        <v>-0.1533723479928855</v>
       </c>
       <c r="D75">
-        <v>-0.3038266266246046</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03073801136291347</v>
+      </c>
+      <c r="E75">
+        <v>0.06657119579774953</v>
+      </c>
+      <c r="F75">
+        <v>-0.1680665010850725</v>
+      </c>
+      <c r="G75">
+        <v>0.02200141838426486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.048738759973831</v>
+        <v>0.1183065229011063</v>
       </c>
       <c r="C76">
-        <v>0.06030777746240919</v>
+        <v>-0.1095732670009805</v>
       </c>
       <c r="D76">
-        <v>-0.2098911187228933</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01791270885322957</v>
+      </c>
+      <c r="E76">
+        <v>0.02433323840238498</v>
+      </c>
+      <c r="F76">
+        <v>-0.1054579579869466</v>
+      </c>
+      <c r="G76">
+        <v>-0.0594343097959506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01823910102316748</v>
+        <v>0.07099019229272774</v>
       </c>
       <c r="C77">
-        <v>0.002845810603236692</v>
+        <v>-0.06086689900511007</v>
       </c>
       <c r="D77">
-        <v>-0.07767913629316035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01041234213315917</v>
+      </c>
+      <c r="E77">
+        <v>-0.04907278966361052</v>
+      </c>
+      <c r="F77">
+        <v>0.01382900039612044</v>
+      </c>
+      <c r="G77">
+        <v>-0.06312091653008522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.007896624777981373</v>
+        <v>0.04259271161560759</v>
       </c>
       <c r="C78">
-        <v>0.002070051640368853</v>
+        <v>-0.04977742599409951</v>
       </c>
       <c r="D78">
-        <v>-0.0647388400015384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005825123070870325</v>
+      </c>
+      <c r="E78">
+        <v>-0.02835848818376809</v>
+      </c>
+      <c r="F78">
+        <v>0.03468369915147929</v>
+      </c>
+      <c r="G78">
+        <v>-0.1027684719238583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>7.156446044252339e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003274670658370299</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-6.260953929505079e-07</v>
+      </c>
+      <c r="E79">
+        <v>-0.0009206665837864511</v>
+      </c>
+      <c r="F79">
+        <v>0.0007022492160109662</v>
+      </c>
+      <c r="G79">
+        <v>0.001195424861508519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03229991851903153</v>
+        <v>0.04314496576386978</v>
       </c>
       <c r="C80">
-        <v>0.01375062221084921</v>
+        <v>-0.05119293802194609</v>
       </c>
       <c r="D80">
-        <v>-0.07687861097576243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01320469696132706</v>
+      </c>
+      <c r="E80">
+        <v>-0.02656792115826695</v>
+      </c>
+      <c r="F80">
+        <v>0.009703788900543865</v>
+      </c>
+      <c r="G80">
+        <v>-0.05442457806768473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.05898855480050315</v>
+        <v>0.1367630965823559</v>
       </c>
       <c r="C81">
-        <v>0.06115195749616788</v>
+        <v>-0.09588879478050821</v>
       </c>
       <c r="D81">
-        <v>-0.1686177037442127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01465468691457171</v>
+      </c>
+      <c r="E81">
+        <v>0.03232173385611353</v>
+      </c>
+      <c r="F81">
+        <v>-0.1263014490938746</v>
+      </c>
+      <c r="G81">
+        <v>-0.02136079012641084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1339450570173145</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08151323837335769</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00952790836687932</v>
+      </c>
+      <c r="E82">
+        <v>0.1002284912874016</v>
+      </c>
+      <c r="F82">
+        <v>-0.05147685615073364</v>
+      </c>
+      <c r="G82">
+        <v>-0.0617425315602601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01369814598125274</v>
+        <v>0.03624157075240513</v>
       </c>
       <c r="C83">
-        <v>0.007047251166440853</v>
+        <v>-0.02854130382310674</v>
       </c>
       <c r="D83">
-        <v>-0.02218221210152369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00601948643515044</v>
+      </c>
+      <c r="E83">
+        <v>-0.03067971672370234</v>
+      </c>
+      <c r="F83">
+        <v>0.02896523657270482</v>
+      </c>
+      <c r="G83">
+        <v>-0.06311912296007355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.08733405770512913</v>
+        <v>0.2110162385288586</v>
       </c>
       <c r="C85">
-        <v>0.07772231960359932</v>
+        <v>-0.1478805132356527</v>
       </c>
       <c r="D85">
-        <v>-0.2757202959794632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0167501911695515</v>
+      </c>
+      <c r="E85">
+        <v>0.1014343180406824</v>
+      </c>
+      <c r="F85">
+        <v>-0.1211354392243508</v>
+      </c>
+      <c r="G85">
+        <v>0.0629841693285642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01568630314113717</v>
+        <v>0.01411476945455696</v>
       </c>
       <c r="C86">
-        <v>0.007786644270436303</v>
+        <v>-0.02467195051445177</v>
       </c>
       <c r="D86">
-        <v>-0.03550710744138795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01137205193008331</v>
+      </c>
+      <c r="E86">
+        <v>-0.05179191295539138</v>
+      </c>
+      <c r="F86">
+        <v>0.01769615107522406</v>
+      </c>
+      <c r="G86">
+        <v>-0.1924187702530627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.002342892187263426</v>
+        <v>0.02124596055104185</v>
       </c>
       <c r="C87">
-        <v>-0.01386306632970815</v>
+        <v>-0.02084574196684089</v>
       </c>
       <c r="D87">
-        <v>-0.02993797940398942</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01203692448603231</v>
+      </c>
+      <c r="E87">
+        <v>-0.0954214447881406</v>
+      </c>
+      <c r="F87">
+        <v>0.008588940628372031</v>
+      </c>
+      <c r="G87">
+        <v>-0.1233512433940803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04655675097726738</v>
+        <v>0.09385084945322572</v>
       </c>
       <c r="C88">
-        <v>0.01144968021437325</v>
+        <v>-0.06886267383535388</v>
       </c>
       <c r="D88">
-        <v>-0.0474713751133266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02229838586292102</v>
+      </c>
+      <c r="E88">
+        <v>0.004272815187127057</v>
+      </c>
+      <c r="F88">
+        <v>-0.02236735844503897</v>
+      </c>
+      <c r="G88">
+        <v>-0.1024902279943417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2997754815783572</v>
+        <v>0.233340218679197</v>
       </c>
       <c r="C89">
-        <v>0.2542221313166459</v>
+        <v>0.3679571044418232</v>
       </c>
       <c r="D89">
-        <v>0.2070380485247195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004778991621067107</v>
+      </c>
+      <c r="E89">
+        <v>0.01881215394928919</v>
+      </c>
+      <c r="F89">
+        <v>-0.0264327121090818</v>
+      </c>
+      <c r="G89">
+        <v>-0.07019915558113475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2462216732351659</v>
+        <v>0.2081695791158116</v>
       </c>
       <c r="C90">
-        <v>0.213228405462863</v>
+        <v>0.3163256557701424</v>
       </c>
       <c r="D90">
-        <v>0.1819255335089574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004814878382768863</v>
+      </c>
+      <c r="E90">
+        <v>-0.0006155396184182803</v>
+      </c>
+      <c r="F90">
+        <v>-0.04818856518195325</v>
+      </c>
+      <c r="G90">
+        <v>-0.04315359714357535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.08384151723562851</v>
+        <v>0.1841807950262104</v>
       </c>
       <c r="C91">
-        <v>0.09180314611087816</v>
+        <v>-0.1417861595703355</v>
       </c>
       <c r="D91">
-        <v>-0.228344285849712</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02178987220283047</v>
+      </c>
+      <c r="E91">
+        <v>0.06209552108327062</v>
+      </c>
+      <c r="F91">
+        <v>-0.1423607033375368</v>
+      </c>
+      <c r="G91">
+        <v>-0.03393974717037807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2040649651301201</v>
+        <v>0.1999311423147349</v>
       </c>
       <c r="C92">
-        <v>0.2167043241570789</v>
+        <v>0.2566348013787123</v>
       </c>
       <c r="D92">
-        <v>0.09225798289970574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03831963457300463</v>
+      </c>
+      <c r="E92">
+        <v>-0.04192886303298839</v>
+      </c>
+      <c r="F92">
+        <v>-0.0595431412124108</v>
+      </c>
+      <c r="G92">
+        <v>-0.1124731840385147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2583567921258956</v>
+        <v>0.231722131182868</v>
       </c>
       <c r="C93">
-        <v>0.2306658185013615</v>
+        <v>0.312915625249978</v>
       </c>
       <c r="D93">
-        <v>0.1561649263428847</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01156554960957787</v>
+      </c>
+      <c r="E93">
+        <v>-0.003947360969156762</v>
+      </c>
+      <c r="F93">
+        <v>-0.04362766752620353</v>
+      </c>
+      <c r="G93">
+        <v>-0.05879291696095861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1355324170314899</v>
+        <v>0.3183248568106702</v>
       </c>
       <c r="C94">
-        <v>0.1116945259296949</v>
+        <v>-0.1803311271884784</v>
       </c>
       <c r="D94">
-        <v>-0.2948935071098692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01846167970142423</v>
+      </c>
+      <c r="E94">
+        <v>0.2119317779398643</v>
+      </c>
+      <c r="F94">
+        <v>-0.4778724329291655</v>
+      </c>
+      <c r="G94">
+        <v>0.4143107837729148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003276529919520644</v>
+        <v>0.1005371052883721</v>
       </c>
       <c r="C95">
-        <v>0.01240248490826608</v>
+        <v>-0.08792824434687078</v>
       </c>
       <c r="D95">
-        <v>-0.1248123280915688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009962508265974545</v>
+      </c>
+      <c r="E95">
+        <v>-0.08509946179985697</v>
+      </c>
+      <c r="F95">
+        <v>0.1863677277105164</v>
+      </c>
+      <c r="G95">
+        <v>-0.01354283933278942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1172426308696248</v>
+        <v>0.1955706477819399</v>
       </c>
       <c r="C98">
-        <v>0.1225716102772487</v>
+        <v>-0.04552954428943973</v>
       </c>
       <c r="D98">
-        <v>-0.1198780483369433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0134975569795682</v>
+      </c>
+      <c r="E98">
+        <v>-0.06906731243754705</v>
+      </c>
+      <c r="F98">
+        <v>0.238819562065392</v>
+      </c>
+      <c r="G98">
+        <v>0.02599620886401362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01022755720333074</v>
+        <v>0.008575348889290346</v>
       </c>
       <c r="C101">
-        <v>0.0008318828519770174</v>
+        <v>-0.02261624366016091</v>
       </c>
       <c r="D101">
-        <v>-0.01784337144837474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009133652425084553</v>
+      </c>
+      <c r="E101">
+        <v>-0.005222581808979506</v>
+      </c>
+      <c r="F101">
+        <v>-0.01594935376205942</v>
+      </c>
+      <c r="G101">
+        <v>-0.09629529754483374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.05393900474966649</v>
+        <v>0.1154360102043083</v>
       </c>
       <c r="C102">
-        <v>0.03883982648243735</v>
+        <v>-0.08425575099432214</v>
       </c>
       <c r="D102">
-        <v>-0.1357240835115196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008064064533415785</v>
+      </c>
+      <c r="E102">
+        <v>0.03522219497026627</v>
+      </c>
+      <c r="F102">
+        <v>-0.04285732428313783</v>
+      </c>
+      <c r="G102">
+        <v>-0.01101175642653261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.658071586981911</v>
+        <v>0.02127956912657252</v>
       </c>
       <c r="C104">
-        <v>-0.7407992180120929</v>
+        <v>0.03051156253034169</v>
       </c>
       <c r="D104">
-        <v>0.02776228386621454</v>
+        <v>0.987912891403781</v>
+      </c>
+      <c r="E104">
+        <v>0.04801640561576326</v>
+      </c>
+      <c r="F104">
+        <v>-0.03490740231417882</v>
+      </c>
+      <c r="G104">
+        <v>0.03994958488161364</v>
       </c>
     </row>
   </sheetData>
